--- a/out/test/Figori_algorithm_23.xlsx
+++ b/out/test/Figori_algorithm_23.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.78364999999999996</v>
+        <v>0.78580000000000005</v>
       </c>
       <c r="B1">
-        <v>0.78139999999999998</v>
+        <v>0.78320000000000001</v>
       </c>
       <c r="C1">
-        <v>0.78859999999999997</v>
+        <v>0.80110000000000003</v>
       </c>
       <c r="D1">
-        <v>0.79425000000000001</v>
+        <v>0.76724999999999999</v>
       </c>
       <c r="E1">
-        <v>0.77664999999999995</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="F1">
-        <v>0.78759999999999997</v>
+        <v>0.76744999999999997</v>
       </c>
       <c r="G1">
-        <v>0.76775000000000004</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="H1">
-        <v>0.76119999999999999</v>
+        <v>0.7863</v>
       </c>
       <c r="I1">
-        <v>0.79420000000000002</v>
+        <v>0.80169999999999997</v>
       </c>
       <c r="J1">
-        <v>0.77349999999999997</v>
+        <v>0.80449999999999999</v>
       </c>
       <c r="K1">
-        <v>0.78259999999999996</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="L1">
-        <v>0.80035000000000001</v>
+        <v>0.79395000000000004</v>
       </c>
       <c r="M1">
-        <v>0.79159999999999997</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="N1">
-        <v>0.76749999999999996</v>
+        <v>0.81830000000000003</v>
       </c>
       <c r="O1">
-        <v>0.77139999999999997</v>
+        <v>0.79515000000000002</v>
       </c>
       <c r="P1">
-        <v>0.77959999999999996</v>
+        <v>0.76854999999999996</v>
       </c>
       <c r="Q1">
-        <v>0.76339999999999997</v>
+        <v>0.78490000000000004</v>
       </c>
       <c r="R1">
-        <v>0.78215000000000001</v>
+        <v>0.78920000000000001</v>
       </c>
       <c r="S1">
-        <v>0.78610000000000002</v>
+        <v>0.79254999999999998</v>
       </c>
       <c r="T1">
-        <v>0.81699999999999995</v>
+        <v>0.81520000000000004</v>
       </c>
       <c r="U1">
-        <v>0.77900000000000003</v>
+        <v>0.75965000000000005</v>
       </c>
       <c r="V1">
-        <v>0.76670000000000005</v>
+        <v>0.78879999999999995</v>
       </c>
       <c r="W1">
-        <v>0.80879999999999996</v>
+        <v>0.78620000000000001</v>
       </c>
       <c r="X1">
-        <v>0.78110000000000002</v>
+        <v>0.76734999999999998</v>
       </c>
       <c r="Y1">
-        <v>0.78944999999999999</v>
+        <v>0.76429999999999998</v>
       </c>
       <c r="Z1">
-        <v>0.83879999999999999</v>
+        <v>0.83520000000000005</v>
       </c>
       <c r="AA1">
-        <v>0.76480000000000004</v>
+        <v>0.79320000000000002</v>
       </c>
       <c r="AB1">
-        <v>0.7651</v>
+        <v>0.76834999999999998</v>
       </c>
       <c r="AC1">
-        <v>0.79620000000000002</v>
+        <v>0.79469999999999996</v>
       </c>
       <c r="AD1">
-        <v>0.7984</v>
+        <v>0.79605000000000004</v>
       </c>
       <c r="AE1">
-        <v>0.78515000000000001</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="AF1">
-        <v>0.78759999999999997</v>
+        <v>0.78369999999999995</v>
       </c>
       <c r="AG1">
-        <v>0.79490000000000005</v>
+        <v>0.77429999999999999</v>
       </c>
       <c r="AH1">
-        <v>0.78979999999999995</v>
+        <v>0.78174999999999994</v>
       </c>
       <c r="AI1">
-        <v>0.78069999999999995</v>
+        <v>0.76675000000000004</v>
       </c>
       <c r="AJ1">
-        <v>0.78990000000000005</v>
+        <v>0.79259999999999997</v>
       </c>
       <c r="AK1">
-        <v>0.79625000000000001</v>
+        <v>0.79774999999999996</v>
       </c>
       <c r="AL1">
-        <v>0.80669999999999997</v>
+        <v>0.79974999999999996</v>
       </c>
       <c r="AM1">
-        <v>0.79574999999999996</v>
+        <v>0.83779999999999999</v>
       </c>
       <c r="AN1">
-        <v>0.7742</v>
+        <v>0.77505000000000002</v>
       </c>
       <c r="AO1">
-        <v>0.77164999999999995</v>
+        <v>0.78469999999999995</v>
       </c>
       <c r="AP1">
-        <v>0.79069999999999996</v>
+        <v>0.78</v>
       </c>
       <c r="AQ1">
-        <v>0.80469999999999997</v>
+        <v>0.7903</v>
       </c>
       <c r="AR1">
-        <v>0.79300000000000004</v>
+        <v>0.79520000000000002</v>
       </c>
       <c r="AS1">
-        <v>0.8377</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="AT1">
-        <v>0.79174999999999995</v>
+        <v>0.78285000000000005</v>
       </c>
       <c r="AU1">
-        <v>0.77339999999999998</v>
+        <v>0.75365000000000004</v>
       </c>
       <c r="AV1">
-        <v>0.77569999999999995</v>
+        <v>0.78359999999999996</v>
       </c>
       <c r="AW1">
-        <v>0.81950000000000001</v>
+        <v>0.75085000000000002</v>
       </c>
       <c r="AX1">
-        <v>0.76705000000000001</v>
+        <v>0.75654999999999994</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.77759999999999996</v>
+        <v>0.72414999999999996</v>
       </c>
       <c r="B2">
-        <v>0.74970000000000003</v>
+        <v>0.75185000000000002</v>
       </c>
       <c r="C2">
-        <v>0.63780000000000003</v>
+        <v>0.76280000000000003</v>
       </c>
       <c r="D2">
-        <v>0.77300000000000002</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="E2">
-        <v>0.83074999999999999</v>
+        <v>0.75790000000000002</v>
       </c>
       <c r="F2">
-        <v>0.82789999999999997</v>
+        <v>0.68779999999999997</v>
       </c>
       <c r="G2">
-        <v>0.6915</v>
+        <v>0.76075000000000004</v>
       </c>
       <c r="H2">
-        <v>0.79590000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="I2">
-        <v>0.8861</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="J2">
-        <v>0.7258</v>
+        <v>0.87219999999999998</v>
       </c>
       <c r="K2">
-        <v>0.77569999999999995</v>
+        <v>0.78480000000000005</v>
       </c>
       <c r="L2">
-        <v>0.76829999999999998</v>
+        <v>0.71865000000000001</v>
       </c>
       <c r="M2">
-        <v>0.77110000000000001</v>
+        <v>0.79669999999999996</v>
       </c>
       <c r="N2">
-        <v>0.75960000000000005</v>
+        <v>0.79790000000000005</v>
       </c>
       <c r="O2">
-        <v>0.75129999999999997</v>
+        <v>0.70220000000000005</v>
       </c>
       <c r="P2">
-        <v>0.78180000000000005</v>
+        <v>0.6754</v>
       </c>
       <c r="Q2">
-        <v>0.69779999999999998</v>
+        <v>0.77959999999999996</v>
       </c>
       <c r="R2">
-        <v>0.80859999999999999</v>
+        <v>0.70660000000000001</v>
       </c>
       <c r="S2">
-        <v>0.72719999999999996</v>
+        <v>0.76739999999999997</v>
       </c>
       <c r="T2">
-        <v>0.89910000000000001</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="U2">
-        <v>0.8982</v>
+        <v>0.76439999999999997</v>
       </c>
       <c r="V2">
-        <v>0.84194999999999998</v>
+        <v>0.76305000000000001</v>
       </c>
       <c r="W2">
-        <v>0.81389999999999996</v>
+        <v>0.76129999999999998</v>
       </c>
       <c r="X2">
-        <v>0.76495000000000002</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="Y2">
-        <v>0.74519999999999997</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="Z2">
-        <v>0.81279999999999997</v>
+        <v>0.7681</v>
       </c>
       <c r="AA2">
-        <v>0.73860000000000003</v>
+        <v>0.85350000000000004</v>
       </c>
       <c r="AB2">
-        <v>0.73829999999999996</v>
+        <v>0.72365000000000002</v>
       </c>
       <c r="AC2">
-        <v>0.76975000000000005</v>
+        <v>0.83620000000000005</v>
       </c>
       <c r="AD2">
-        <v>0.70455000000000001</v>
+        <v>0.76439999999999997</v>
       </c>
       <c r="AE2">
-        <v>0.78100000000000003</v>
+        <v>0.73424999999999996</v>
       </c>
       <c r="AF2">
-        <v>0.87819999999999998</v>
+        <v>0.75970000000000004</v>
       </c>
       <c r="AG2">
-        <v>0.76070000000000004</v>
+        <v>0.84770000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.89019999999999999</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="AI2">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="AJ2">
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="AK2">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="AL2">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="AM2">
         <v>0.79090000000000005</v>
       </c>
-      <c r="AJ2">
-        <v>0.73640000000000005</v>
-      </c>
-      <c r="AK2">
-        <v>0.74419999999999997</v>
-      </c>
-      <c r="AL2">
-        <v>0.89539999999999997</v>
-      </c>
-      <c r="AM2">
-        <v>0.74270000000000003</v>
-      </c>
       <c r="AN2">
-        <v>0.82079999999999997</v>
+        <v>0.70755000000000001</v>
       </c>
       <c r="AO2">
-        <v>0.69140000000000001</v>
+        <v>0.65629999999999999</v>
       </c>
       <c r="AP2">
-        <v>0.70914999999999995</v>
+        <v>0.72740000000000005</v>
       </c>
       <c r="AQ2">
-        <v>0.77669999999999995</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="AR2">
-        <v>0.75800000000000001</v>
+        <v>0.91049999999999998</v>
       </c>
       <c r="AS2">
-        <v>0.82450000000000001</v>
+        <v>0.81810000000000005</v>
       </c>
       <c r="AT2">
-        <v>0.74444999999999995</v>
+        <v>0.877</v>
       </c>
       <c r="AU2">
-        <v>0.6865</v>
+        <v>0.70989999999999998</v>
       </c>
       <c r="AV2">
-        <v>0.69730000000000003</v>
+        <v>0.88395000000000001</v>
       </c>
       <c r="AW2">
-        <v>0.81220000000000003</v>
+        <v>0.76239999999999997</v>
       </c>
       <c r="AX2">
-        <v>0.83730000000000004</v>
+        <v>0.7147</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.85880000000000001</v>
+        <v>0.65129999999999999</v>
       </c>
       <c r="B3">
-        <v>0.8901</v>
+        <v>0.83845000000000003</v>
       </c>
       <c r="C3">
-        <v>0.52859999999999996</v>
+        <v>0.83589999999999998</v>
       </c>
       <c r="D3">
-        <v>0.81269999999999998</v>
+        <v>0.78349999999999997</v>
       </c>
       <c r="E3">
-        <v>0.92210000000000003</v>
+        <v>0.75305</v>
       </c>
       <c r="F3">
-        <v>0.78139999999999998</v>
+        <v>0.79510000000000003</v>
       </c>
       <c r="G3">
-        <v>0.50129999999999997</v>
+        <v>0.86170000000000002</v>
       </c>
       <c r="H3">
-        <v>0.67020000000000002</v>
+        <v>0.53759999999999997</v>
       </c>
       <c r="I3">
-        <v>0.92769999999999997</v>
+        <v>0.71379999999999999</v>
       </c>
       <c r="J3">
-        <v>0.60389999999999999</v>
+        <v>0.82010000000000005</v>
       </c>
       <c r="K3">
-        <v>0.85060000000000002</v>
+        <v>0.80579999999999996</v>
       </c>
       <c r="L3">
-        <v>0.69604999999999995</v>
+        <v>0.81364999999999998</v>
       </c>
       <c r="M3">
-        <v>0.73899999999999999</v>
+        <v>0.72960000000000003</v>
       </c>
       <c r="N3">
-        <v>0.59714999999999996</v>
+        <v>0.76349999999999996</v>
       </c>
       <c r="O3">
-        <v>0.75434999999999997</v>
+        <v>0.7843</v>
       </c>
       <c r="P3">
-        <v>0.78590000000000004</v>
+        <v>0.6079</v>
       </c>
       <c r="Q3">
-        <v>0.70509999999999995</v>
+        <v>0.69040000000000001</v>
       </c>
       <c r="R3">
-        <v>0.77170000000000005</v>
+        <v>0.77610000000000001</v>
       </c>
       <c r="S3">
-        <v>0.70589999999999997</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="T3">
-        <v>0.87504999999999999</v>
+        <v>0.86050000000000004</v>
       </c>
       <c r="U3">
-        <v>0.77749999999999997</v>
+        <v>0.6825</v>
       </c>
       <c r="V3">
-        <v>0.85360000000000003</v>
+        <v>0.71660000000000001</v>
       </c>
       <c r="W3">
-        <v>0.90764999999999996</v>
+        <v>0.85780000000000001</v>
       </c>
       <c r="X3">
-        <v>0.81979999999999997</v>
+        <v>0.58755000000000002</v>
       </c>
       <c r="Y3">
-        <v>0.69389999999999996</v>
+        <v>0.9022</v>
       </c>
       <c r="Z3">
-        <v>0.78300000000000003</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="AA3">
-        <v>0.67210000000000003</v>
+        <v>0.92979999999999996</v>
       </c>
       <c r="AB3">
-        <v>0.78659999999999997</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="AC3">
-        <v>0.77200000000000002</v>
+        <v>0.8347</v>
       </c>
       <c r="AD3">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AE3">
+        <v>0.57474999999999998</v>
+      </c>
+      <c r="AF3">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="AG3">
+        <v>0.7117</v>
+      </c>
+      <c r="AH3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AI3">
+        <v>0.61770000000000003</v>
+      </c>
+      <c r="AJ3">
         <v>0.77849999999999997</v>
       </c>
-      <c r="AE3">
-        <v>0.75790000000000002</v>
-      </c>
-      <c r="AF3">
-        <v>0.86409999999999998</v>
-      </c>
-      <c r="AG3">
-        <v>0.78159999999999996</v>
-      </c>
-      <c r="AH3">
-        <v>0.81355</v>
-      </c>
-      <c r="AI3">
-        <v>0.82915000000000005</v>
-      </c>
-      <c r="AJ3">
-        <v>0.76629999999999998</v>
-      </c>
       <c r="AK3">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="AL3">
+        <v>0.71755000000000002</v>
+      </c>
+      <c r="AM3">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="AN3">
+        <v>0.75534999999999997</v>
+      </c>
+      <c r="AO3">
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="AP3">
+        <v>0.66835</v>
+      </c>
+      <c r="AQ3">
+        <v>0.79105000000000003</v>
+      </c>
+      <c r="AR3">
+        <v>0.8004</v>
+      </c>
+      <c r="AS3">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="AT3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="AU3">
+        <v>0.8085</v>
+      </c>
+      <c r="AV3">
+        <v>0.84584999999999999</v>
+      </c>
+      <c r="AW3">
+        <v>0.68415000000000004</v>
+      </c>
+      <c r="AX3">
         <v>0.76160000000000005</v>
-      </c>
-      <c r="AL3">
-        <v>0.87739999999999996</v>
-      </c>
-      <c r="AM3">
-        <v>0.71519999999999995</v>
-      </c>
-      <c r="AN3">
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="AO3">
-        <v>0.622</v>
-      </c>
-      <c r="AP3">
-        <v>0.66490000000000005</v>
-      </c>
-      <c r="AQ3">
-        <v>0.80720000000000003</v>
-      </c>
-      <c r="AR3">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="AS3">
-        <v>0.753</v>
-      </c>
-      <c r="AT3">
-        <v>0.71330000000000005</v>
-      </c>
-      <c r="AU3">
-        <v>0.70350000000000001</v>
-      </c>
-      <c r="AV3">
-        <v>0.70930000000000004</v>
-      </c>
-      <c r="AW3">
-        <v>0.74380000000000002</v>
-      </c>
-      <c r="AX3">
-        <v>0.51985000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.9083</v>
+        <v>0.74819999999999998</v>
       </c>
       <c r="B4">
-        <v>0.81710000000000005</v>
+        <v>0.72694999999999999</v>
       </c>
       <c r="C4">
-        <v>0.64219999999999999</v>
+        <v>0.66949999999999998</v>
       </c>
       <c r="D4">
-        <v>0.81879999999999997</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="E4">
-        <v>0.86080000000000001</v>
+        <v>0.80589999999999995</v>
       </c>
       <c r="F4">
-        <v>0.79979999999999996</v>
+        <v>0.89559999999999995</v>
       </c>
       <c r="G4">
-        <v>0.49790000000000001</v>
+        <v>0.69440000000000002</v>
       </c>
       <c r="H4">
-        <v>0.65339999999999998</v>
+        <v>0.84389999999999998</v>
       </c>
       <c r="I4">
-        <v>0.92110000000000003</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="J4">
-        <v>0.59830000000000005</v>
+        <v>0.75139999999999996</v>
       </c>
       <c r="K4">
-        <v>0.98209999999999997</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="L4">
-        <v>0.7147</v>
+        <v>0.83</v>
       </c>
       <c r="M4">
-        <v>0.95030000000000003</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="N4">
-        <v>0.61950000000000005</v>
+        <v>0.73280000000000001</v>
       </c>
       <c r="O4">
-        <v>0.85470000000000002</v>
+        <v>0.77790000000000004</v>
       </c>
       <c r="P4">
-        <v>0.70230000000000004</v>
+        <v>0.55705000000000005</v>
       </c>
       <c r="Q4">
-        <v>0.68779999999999997</v>
+        <v>0.68859999999999999</v>
       </c>
       <c r="R4">
-        <v>0.79620000000000002</v>
+        <v>0.82589999999999997</v>
       </c>
       <c r="S4">
-        <v>0.93279999999999996</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="T4">
-        <v>0.79139999999999999</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="U4">
-        <v>0.84450000000000003</v>
+        <v>0.70879999999999999</v>
       </c>
       <c r="V4">
-        <v>0.73829999999999996</v>
+        <v>0.69935000000000003</v>
       </c>
       <c r="W4">
-        <v>0.79405000000000003</v>
+        <v>0.73609999999999998</v>
       </c>
       <c r="X4">
-        <v>0.7359</v>
+        <v>0.55664999999999998</v>
       </c>
       <c r="Y4">
-        <v>0.73180000000000001</v>
+        <v>0.82730000000000004</v>
       </c>
       <c r="Z4">
-        <v>0.73499999999999999</v>
+        <v>0.88519999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.67274999999999996</v>
+        <v>0.78869999999999996</v>
       </c>
       <c r="AB4">
-        <v>0.64480000000000004</v>
+        <v>0.57110000000000005</v>
       </c>
       <c r="AC4">
-        <v>0.92100000000000004</v>
+        <v>0.8206</v>
       </c>
       <c r="AD4">
-        <v>0.78200000000000003</v>
+        <v>0.71730000000000005</v>
       </c>
       <c r="AE4">
-        <v>0.76700000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="AF4">
-        <v>0.96040000000000003</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="AG4">
-        <v>0.80689999999999995</v>
+        <v>0.56030000000000002</v>
       </c>
       <c r="AH4">
-        <v>0.56659999999999999</v>
+        <v>0.77210000000000001</v>
       </c>
       <c r="AI4">
-        <v>0.86280000000000001</v>
+        <v>0.76380000000000003</v>
       </c>
       <c r="AJ4">
-        <v>0.83479999999999999</v>
+        <v>0.85960000000000003</v>
       </c>
       <c r="AK4">
-        <v>0.59770000000000001</v>
+        <v>0.79659999999999997</v>
       </c>
       <c r="AL4">
-        <v>0.81315000000000004</v>
+        <v>0.59960000000000002</v>
       </c>
       <c r="AM4">
-        <v>0.65075000000000005</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="AN4">
-        <v>0.59379999999999999</v>
+        <v>0.70220000000000005</v>
       </c>
       <c r="AO4">
-        <v>0.68149999999999999</v>
+        <v>0.57909999999999995</v>
       </c>
       <c r="AP4">
-        <v>0.61109999999999998</v>
+        <v>0.59530000000000005</v>
       </c>
       <c r="AQ4">
-        <v>0.64710000000000001</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="AR4">
-        <v>0.97609999999999997</v>
+        <v>0.71325000000000005</v>
       </c>
       <c r="AS4">
-        <v>0.80910000000000004</v>
+        <v>0.69820000000000004</v>
       </c>
       <c r="AT4">
-        <v>0.73529999999999995</v>
+        <v>0.86770000000000003</v>
       </c>
       <c r="AU4">
-        <v>0.63844999999999996</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="AV4">
-        <v>0.91320000000000001</v>
+        <v>0.75780000000000003</v>
       </c>
       <c r="AW4">
-        <v>0.67930000000000001</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="AX4">
-        <v>0.45400000000000001</v>
+        <v>0.70589999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.91890000000000005</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="B5">
-        <v>0.69069999999999998</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="C5">
-        <v>0.55000000000000004</v>
+        <v>0.63539999999999996</v>
       </c>
       <c r="D5">
-        <v>0.78620000000000001</v>
+        <v>0.67669999999999997</v>
       </c>
       <c r="E5">
-        <v>0.79400000000000004</v>
+        <v>0.82440000000000002</v>
       </c>
       <c r="F5">
-        <v>0.83289999999999997</v>
+        <v>0.86070000000000002</v>
       </c>
       <c r="G5">
-        <v>0.44700000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="H5">
-        <v>0.54610000000000003</v>
+        <v>0.87160000000000004</v>
       </c>
       <c r="I5">
-        <v>0.7349</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="J5">
-        <v>0.46489999999999998</v>
+        <v>0.81520000000000004</v>
       </c>
       <c r="K5">
-        <v>0.98740000000000006</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="L5">
-        <v>0.80840000000000001</v>
+        <v>0.72540000000000004</v>
       </c>
       <c r="M5">
-        <v>0.97560000000000002</v>
+        <v>0.86180000000000001</v>
       </c>
       <c r="N5">
-        <v>0.97189999999999999</v>
+        <v>0.86619999999999997</v>
       </c>
       <c r="O5">
-        <v>0.84370000000000001</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="P5">
-        <v>0.89910000000000001</v>
+        <v>0.69110000000000005</v>
       </c>
       <c r="Q5">
-        <v>0.73199999999999998</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="R5">
-        <v>0.75229999999999997</v>
+        <v>0.88260000000000005</v>
       </c>
       <c r="S5">
-        <v>0.85229999999999995</v>
+        <v>0.7006</v>
       </c>
       <c r="T5">
-        <v>0.83425000000000005</v>
+        <v>0.82050000000000001</v>
       </c>
       <c r="U5">
-        <v>0.87150000000000005</v>
+        <v>0.67759999999999998</v>
       </c>
       <c r="V5">
-        <v>0.61809999999999998</v>
+        <v>0.71660000000000001</v>
       </c>
       <c r="W5">
-        <v>0.65495000000000003</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="X5">
-        <v>0.87690000000000001</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="Y5">
-        <v>0.81040000000000001</v>
+        <v>0.78759999999999997</v>
       </c>
       <c r="Z5">
-        <v>0.92030000000000001</v>
+        <v>0.9466</v>
       </c>
       <c r="AA5">
-        <v>0.73080000000000001</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="AB5">
-        <v>0.56399999999999995</v>
+        <v>0.59330000000000005</v>
       </c>
       <c r="AC5">
-        <v>0.89149999999999996</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="AD5">
-        <v>0.75490000000000002</v>
+        <v>0.84250000000000003</v>
       </c>
       <c r="AE5">
-        <v>0.81740000000000002</v>
+        <v>0.51980000000000004</v>
       </c>
       <c r="AF5">
-        <v>0.90249999999999997</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="AG5">
-        <v>0.90529999999999999</v>
+        <v>0.53510000000000002</v>
       </c>
       <c r="AH5">
-        <v>0.34539999999999998</v>
+        <v>0.60640000000000005</v>
       </c>
       <c r="AI5">
-        <v>0.75409999999999999</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="AJ5">
-        <v>0.75600000000000001</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="AK5">
-        <v>0.60580000000000001</v>
+        <v>0.72650000000000003</v>
       </c>
       <c r="AL5">
-        <v>0.70079999999999998</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="AM5">
-        <v>0.49245</v>
+        <v>0.83779999999999999</v>
       </c>
       <c r="AN5">
-        <v>0.63519999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AO5">
-        <v>0.68069999999999997</v>
+        <v>0.52939999999999998</v>
       </c>
       <c r="AP5">
-        <v>0.70660000000000001</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="AQ5">
-        <v>0.50800000000000001</v>
+        <v>0.90080000000000005</v>
       </c>
       <c r="AR5">
-        <v>0.97070000000000001</v>
+        <v>0.75360000000000005</v>
       </c>
       <c r="AS5">
-        <v>0.77200000000000002</v>
+        <v>0.72589999999999999</v>
       </c>
       <c r="AT5">
-        <v>0.85840000000000005</v>
+        <v>0.81369999999999998</v>
       </c>
       <c r="AU5">
-        <v>0.53120000000000001</v>
+        <v>0.71760000000000002</v>
       </c>
       <c r="AV5">
-        <v>0.93600000000000005</v>
+        <v>0.69210000000000005</v>
       </c>
       <c r="AW5">
-        <v>0.66410000000000002</v>
+        <v>0.57720000000000005</v>
       </c>
       <c r="AX5">
-        <v>0.55940000000000001</v>
+        <v>0.80010000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.72660000000000002</v>
+        <v>0.57350000000000001</v>
       </c>
       <c r="B6">
-        <v>0.64959999999999996</v>
+        <v>0.57850000000000001</v>
       </c>
       <c r="C6">
-        <v>0.8105</v>
+        <v>0.91210000000000002</v>
       </c>
       <c r="D6">
-        <v>0.88680000000000003</v>
+        <v>0.7843</v>
       </c>
       <c r="E6">
-        <v>0.77270000000000005</v>
+        <v>0.80840000000000001</v>
       </c>
       <c r="F6">
-        <v>0.88270000000000004</v>
+        <v>0.90859999999999996</v>
       </c>
       <c r="G6">
-        <v>0.40360000000000001</v>
+        <v>0.91469999999999996</v>
       </c>
       <c r="H6">
-        <v>0.51239999999999997</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I6">
-        <v>0.85309999999999997</v>
+        <v>0.74809999999999999</v>
       </c>
       <c r="J6">
-        <v>0.49299999999999999</v>
+        <v>0.67449999999999999</v>
       </c>
       <c r="K6">
-        <v>0.98829999999999996</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="L6">
-        <v>0.73280000000000001</v>
+        <v>0.68459999999999999</v>
       </c>
       <c r="M6">
-        <v>0.96699999999999997</v>
+        <v>0.89280000000000004</v>
       </c>
       <c r="N6">
-        <v>0.93149999999999999</v>
+        <v>0.81459999999999999</v>
       </c>
       <c r="O6">
-        <v>0.79479999999999995</v>
+        <v>0.62029999999999996</v>
       </c>
       <c r="P6">
-        <v>0.78890000000000005</v>
+        <v>0.66069999999999995</v>
       </c>
       <c r="Q6">
-        <v>0.74339999999999995</v>
+        <v>0.88190000000000002</v>
       </c>
       <c r="R6">
-        <v>0.75949999999999995</v>
+        <v>0.90310000000000001</v>
       </c>
       <c r="S6">
-        <v>0.95</v>
+        <v>0.63990000000000002</v>
       </c>
       <c r="T6">
-        <v>0.86819999999999997</v>
+        <v>0.78649999999999998</v>
       </c>
       <c r="U6">
-        <v>0.79630000000000001</v>
+        <v>0.87009999999999998</v>
       </c>
       <c r="V6">
-        <v>0.44800000000000001</v>
+        <v>0.80149999999999999</v>
       </c>
       <c r="W6">
-        <v>0.49490000000000001</v>
+        <v>0.80159999999999998</v>
       </c>
       <c r="X6">
-        <v>0.93930000000000002</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="Y6">
-        <v>0.73680000000000001</v>
+        <v>0.6341</v>
       </c>
       <c r="Z6">
-        <v>0.90290000000000004</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.81169999999999998</v>
+        <v>0.7984</v>
       </c>
       <c r="AB6">
-        <v>0.45889999999999997</v>
+        <v>0.65759999999999996</v>
       </c>
       <c r="AC6">
-        <v>0.73480000000000001</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="AD6">
-        <v>0.3987</v>
+        <v>0.86160000000000003</v>
       </c>
       <c r="AE6">
-        <v>0.80100000000000005</v>
+        <v>0.41410000000000002</v>
       </c>
       <c r="AF6">
-        <v>0.92500000000000004</v>
+        <v>0.63959999999999995</v>
       </c>
       <c r="AG6">
-        <v>0.97209999999999996</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="AH6">
-        <v>0.26840000000000003</v>
+        <v>0.6583</v>
       </c>
       <c r="AI6">
-        <v>0.86629999999999996</v>
+        <v>0.56759999999999999</v>
       </c>
       <c r="AJ6">
-        <v>0.54469999999999996</v>
+        <v>0.87590000000000001</v>
       </c>
       <c r="AK6">
-        <v>0.47549999999999998</v>
+        <v>0.74080000000000001</v>
       </c>
       <c r="AL6">
-        <v>0.67579999999999996</v>
+        <v>0.69330000000000003</v>
       </c>
       <c r="AM6">
-        <v>0.2324</v>
+        <v>0.76259999999999994</v>
       </c>
       <c r="AN6">
-        <v>0.53129999999999999</v>
+        <v>0.66390000000000005</v>
       </c>
       <c r="AO6">
-        <v>0.66639999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="AP6">
-        <v>0.71020000000000005</v>
+        <v>0.59850000000000003</v>
       </c>
       <c r="AQ6">
-        <v>0.45760000000000001</v>
+        <v>0.82279999999999998</v>
       </c>
       <c r="AR6">
-        <v>0.95669999999999999</v>
+        <v>0.80859999999999999</v>
       </c>
       <c r="AS6">
-        <v>0.73929999999999996</v>
+        <v>0.67669999999999997</v>
       </c>
       <c r="AT6">
-        <v>0.79290000000000005</v>
+        <v>0.97340000000000004</v>
       </c>
       <c r="AU6">
-        <v>0.65969999999999995</v>
+        <v>0.87109999999999999</v>
       </c>
       <c r="AV6">
-        <v>0.84950000000000003</v>
+        <v>0.76970000000000005</v>
       </c>
       <c r="AW6">
-        <v>0.65529999999999999</v>
+        <v>0.79169999999999996</v>
       </c>
       <c r="AX6">
-        <v>0.7107</v>
+        <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.30620000000000003</v>
+        <v>0.63529999999999998</v>
       </c>
       <c r="B7">
-        <v>0.68710000000000004</v>
+        <v>0.50360000000000005</v>
       </c>
       <c r="C7">
-        <v>0.92949999999999999</v>
+        <v>0.92710000000000004</v>
       </c>
       <c r="D7">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="E7">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F7">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="G7">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.9919</v>
+      </c>
+      <c r="I7">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.63680000000000003</v>
+      </c>
+      <c r="K7">
+        <v>0.68540000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.61070000000000002</v>
+      </c>
+      <c r="M7">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.5363</v>
+      </c>
+      <c r="P7">
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="Q7">
+        <v>0.8569</v>
+      </c>
+      <c r="R7">
+        <v>0.85319999999999996</v>
+      </c>
+      <c r="S7">
+        <v>0.6724</v>
+      </c>
+      <c r="T7">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="U7">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="V7">
+        <v>0.86170000000000002</v>
+      </c>
+      <c r="W7">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="X7">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="Y7">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="Z7">
+        <v>0.74829999999999997</v>
+      </c>
+      <c r="AA7">
+        <v>0.8569</v>
+      </c>
+      <c r="AB7">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="AC7">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="AD7">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="AE7">
+        <v>0.72430000000000005</v>
+      </c>
+      <c r="AF7">
+        <v>0.72189999999999999</v>
+      </c>
+      <c r="AG7">
+        <v>0.29459999999999997</v>
+      </c>
+      <c r="AH7">
+        <v>0.45779999999999998</v>
+      </c>
+      <c r="AI7">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="AJ7">
         <v>0.83240000000000003</v>
       </c>
-      <c r="E7">
-        <v>0.62490000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.82720000000000005</v>
-      </c>
-      <c r="G7">
-        <v>0.39939999999999998</v>
-      </c>
-      <c r="H7">
-        <v>0.4955</v>
-      </c>
-      <c r="I7">
-        <v>0.76790000000000003</v>
-      </c>
-      <c r="J7">
-        <v>0.55169999999999997</v>
-      </c>
-      <c r="K7">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="L7">
-        <v>0.46310000000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.9516</v>
-      </c>
-      <c r="N7">
-        <v>0.98060000000000003</v>
-      </c>
-      <c r="O7">
-        <v>0.80779999999999996</v>
-      </c>
-      <c r="P7">
-        <v>0.8256</v>
-      </c>
-      <c r="Q7">
-        <v>0.87350000000000005</v>
-      </c>
-      <c r="R7">
-        <v>0.74009999999999998</v>
-      </c>
-      <c r="S7">
-        <v>0.90580000000000005</v>
-      </c>
-      <c r="T7">
-        <v>0.70330000000000004</v>
-      </c>
-      <c r="U7">
-        <v>0.65139999999999998</v>
-      </c>
-      <c r="V7">
-        <v>0.51149999999999995</v>
-      </c>
-      <c r="W7">
-        <v>0.5151</v>
-      </c>
-      <c r="X7">
-        <v>0.90069999999999995</v>
-      </c>
-      <c r="Y7">
-        <v>0.53</v>
-      </c>
-      <c r="Z7">
-        <v>0.75680000000000003</v>
-      </c>
-      <c r="AA7">
-        <v>0.80320000000000003</v>
-      </c>
-      <c r="AB7">
-        <v>0.55430000000000001</v>
-      </c>
-      <c r="AC7">
-        <v>0.83930000000000005</v>
-      </c>
-      <c r="AD7">
-        <v>0.3039</v>
-      </c>
-      <c r="AE7">
-        <v>0.56889999999999996</v>
-      </c>
-      <c r="AF7">
-        <v>0.8498</v>
-      </c>
-      <c r="AG7">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="AH7">
-        <v>0.14430000000000001</v>
-      </c>
-      <c r="AI7">
-        <v>0.77669999999999995</v>
-      </c>
-      <c r="AJ7">
-        <v>0.83250000000000002</v>
-      </c>
       <c r="AK7">
-        <v>0.27510000000000001</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="AL7">
-        <v>0.64219999999999999</v>
+        <v>0.53010000000000002</v>
       </c>
       <c r="AM7">
-        <v>0.2165</v>
+        <v>0.72309999999999997</v>
       </c>
       <c r="AN7">
-        <v>0.50239999999999996</v>
+        <v>0.80449999999999999</v>
       </c>
       <c r="AO7">
-        <v>0.63419999999999999</v>
+        <v>0.74760000000000004</v>
       </c>
       <c r="AP7">
-        <v>0.66679999999999995</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="AQ7">
-        <v>0.46010000000000001</v>
+        <v>0.7319</v>
       </c>
       <c r="AR7">
-        <v>0.9607</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="AS7">
-        <v>0.7077</v>
+        <v>0.71189999999999998</v>
       </c>
       <c r="AT7">
-        <v>0.93810000000000004</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="AU7">
-        <v>0.55149999999999999</v>
+        <v>0.77959999999999996</v>
       </c>
       <c r="AV7">
-        <v>0.90959999999999996</v>
+        <v>0.72560000000000002</v>
       </c>
       <c r="AW7">
-        <v>0.62829999999999997</v>
+        <v>0.79530000000000001</v>
       </c>
       <c r="AX7">
-        <v>0.81730000000000003</v>
+        <v>0.64300000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.2122</v>
+        <v>0.63919999999999999</v>
       </c>
       <c r="B8">
-        <v>0.53320000000000001</v>
+        <v>0.4007</v>
       </c>
       <c r="C8">
-        <v>0.90239999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="D8">
-        <v>0.76270000000000004</v>
+        <v>0.70850000000000002</v>
       </c>
       <c r="E8">
-        <v>0.46970000000000001</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="F8">
-        <v>0.77700000000000002</v>
+        <v>0.92010000000000003</v>
       </c>
       <c r="G8">
-        <v>0.27179999999999999</v>
+        <v>0.61629999999999996</v>
       </c>
       <c r="H8">
-        <v>0.57699999999999996</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="I8">
-        <v>0.78400000000000003</v>
+        <v>0.84630000000000005</v>
       </c>
       <c r="J8">
-        <v>0.52710000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="K8">
-        <v>0.92659999999999998</v>
+        <v>0.68210000000000004</v>
       </c>
       <c r="L8">
-        <v>0.39950000000000002</v>
+        <v>0.78010000000000002</v>
       </c>
       <c r="M8">
-        <v>0.93640000000000001</v>
+        <v>0.8397</v>
       </c>
       <c r="N8">
-        <v>0.96040000000000003</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="O8">
-        <v>0.89290000000000003</v>
+        <v>0.4738</v>
       </c>
       <c r="P8">
-        <v>0.71079999999999999</v>
+        <v>0.62280000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.86060000000000003</v>
+        <v>0.79820000000000002</v>
       </c>
       <c r="R8">
-        <v>0.66869999999999996</v>
+        <v>0.76619999999999999</v>
       </c>
       <c r="S8">
-        <v>0.83320000000000005</v>
+        <v>0.7621</v>
       </c>
       <c r="T8">
-        <v>0.92559999999999998</v>
+        <v>0.66369999999999996</v>
       </c>
       <c r="U8">
-        <v>0.73450000000000004</v>
+        <v>0.80420000000000003</v>
       </c>
       <c r="V8">
-        <v>0.53539999999999999</v>
+        <v>0.89180000000000004</v>
       </c>
       <c r="W8">
-        <v>0.44190000000000002</v>
+        <v>0.85270000000000001</v>
       </c>
       <c r="X8">
-        <v>0.9143</v>
+        <v>0.71440000000000003</v>
       </c>
       <c r="Y8">
-        <v>0.65090000000000003</v>
+        <v>0.64680000000000004</v>
       </c>
       <c r="Z8">
-        <v>0.57369999999999999</v>
+        <v>0.64970000000000006</v>
       </c>
       <c r="AA8">
-        <v>0.6603</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AB8">
-        <v>0.47770000000000001</v>
+        <v>0.74939999999999996</v>
       </c>
       <c r="AC8">
-        <v>0.92659999999999998</v>
+        <v>0.84719999999999995</v>
       </c>
       <c r="AD8">
-        <v>0.49459999999999998</v>
+        <v>0.80579999999999996</v>
       </c>
       <c r="AE8">
-        <v>0.50719999999999998</v>
+        <v>0.6593</v>
       </c>
       <c r="AF8">
-        <v>0.83579999999999999</v>
+        <v>0.62039999999999995</v>
       </c>
       <c r="AG8">
-        <v>0.99380000000000002</v>
+        <v>0.33860000000000001</v>
       </c>
       <c r="AH8">
-        <v>9.2999999999999999E-2</v>
+        <v>0.42730000000000001</v>
       </c>
       <c r="AI8">
-        <v>0.68300000000000005</v>
+        <v>0.64910000000000001</v>
       </c>
       <c r="AJ8">
-        <v>0.64775000000000005</v>
+        <v>0.75</v>
       </c>
       <c r="AK8">
-        <v>0.52959999999999996</v>
+        <v>0.6492</v>
       </c>
       <c r="AL8">
-        <v>0.77039999999999997</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="AM8">
-        <v>0.25269999999999998</v>
+        <v>0.4335</v>
       </c>
       <c r="AN8">
-        <v>0.42980000000000002</v>
+        <v>0.75880000000000003</v>
       </c>
       <c r="AO8">
-        <v>0.749</v>
+        <v>0.65839999999999999</v>
       </c>
       <c r="AP8">
-        <v>0.66010000000000002</v>
+        <v>0.51539999999999997</v>
       </c>
       <c r="AQ8">
-        <v>0.4824</v>
+        <v>0.53120000000000001</v>
       </c>
       <c r="AR8">
-        <v>0.92110000000000003</v>
+        <v>0.34050000000000002</v>
       </c>
       <c r="AS8">
-        <v>0.77829999999999999</v>
+        <v>0.5736</v>
       </c>
       <c r="AT8">
-        <v>0.85580000000000001</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>0.31869999999999998</v>
+        <v>0.55110000000000003</v>
       </c>
       <c r="AV8">
-        <v>0.85819999999999996</v>
+        <v>0.68149999999999999</v>
       </c>
       <c r="AW8">
-        <v>0.63180000000000003</v>
+        <v>0.6391</v>
       </c>
       <c r="AX8">
-        <v>0.69540000000000002</v>
+        <v>0.39340000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.15559999999999999</v>
+        <v>0.54459999999999997</v>
       </c>
       <c r="B9">
-        <v>0.42530000000000001</v>
+        <v>0.23760000000000001</v>
       </c>
       <c r="C9">
-        <v>0.4345</v>
+        <v>0.9002</v>
       </c>
       <c r="D9">
-        <v>0.59189999999999998</v>
+        <v>0.63270000000000004</v>
       </c>
       <c r="E9">
-        <v>0.35670000000000002</v>
+        <v>0.85129999999999995</v>
       </c>
       <c r="F9">
-        <v>0.5302</v>
+        <v>0.86809999999999998</v>
       </c>
       <c r="G9">
-        <v>0.32790000000000002</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="H9">
-        <v>0.46800000000000003</v>
+        <v>0.8327</v>
       </c>
       <c r="I9">
-        <v>0.67930000000000001</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="J9">
-        <v>0.61699999999999999</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="K9">
-        <v>0.88800000000000001</v>
+        <v>0.60529999999999995</v>
       </c>
       <c r="L9">
-        <v>0.4728</v>
+        <v>0.59230000000000005</v>
       </c>
       <c r="M9">
-        <v>0.80759999999999998</v>
+        <v>0.94650000000000001</v>
       </c>
       <c r="N9">
-        <v>0.97709999999999997</v>
+        <v>0.4864</v>
       </c>
       <c r="O9">
-        <v>0.78220000000000001</v>
+        <v>0.50529999999999997</v>
       </c>
       <c r="P9">
-        <v>0.85060000000000002</v>
+        <v>0.64049999999999996</v>
       </c>
       <c r="Q9">
-        <v>0.89910000000000001</v>
+        <v>0.82079999999999997</v>
       </c>
       <c r="R9">
-        <v>0.54859999999999998</v>
+        <v>0.95140000000000002</v>
       </c>
       <c r="S9">
-        <v>0.71809999999999996</v>
+        <v>0.752</v>
       </c>
       <c r="T9">
-        <v>0.90780000000000005</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="U9">
-        <v>0.81340000000000001</v>
+        <v>0.89729999999999999</v>
       </c>
       <c r="V9">
-        <v>0.46929999999999999</v>
+        <v>0.83730000000000004</v>
       </c>
       <c r="W9">
-        <v>0.50119999999999998</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="X9">
-        <v>0.86699999999999999</v>
+        <v>0.69779999999999998</v>
       </c>
       <c r="Y9">
-        <v>0.4486</v>
+        <v>0.63180000000000003</v>
       </c>
       <c r="Z9">
-        <v>0.48680000000000001</v>
+        <v>0.79490000000000005</v>
       </c>
       <c r="AA9">
-        <v>0.53810000000000002</v>
+        <v>0.35360000000000003</v>
       </c>
       <c r="AB9">
-        <v>0.48299999999999998</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="AC9">
-        <v>0.91700000000000004</v>
+        <v>0.81289999999999996</v>
       </c>
       <c r="AD9">
-        <v>0.52010000000000001</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="AE9">
-        <v>0.40329999999999999</v>
+        <v>0.79520000000000002</v>
       </c>
       <c r="AF9">
-        <v>0.65739999999999998</v>
+        <v>0.55810000000000004</v>
       </c>
       <c r="AG9">
-        <v>0.98839999999999995</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="AH9">
-        <v>6.1400000000000003E-2</v>
+        <v>0.49980000000000002</v>
       </c>
       <c r="AI9">
-        <v>0.7016</v>
+        <v>0.69910000000000005</v>
       </c>
       <c r="AJ9">
-        <v>0.59889999999999999</v>
+        <v>0.65869999999999995</v>
       </c>
       <c r="AK9">
-        <v>0.72740000000000005</v>
+        <v>0.40110000000000001</v>
       </c>
       <c r="AL9">
-        <v>0.80940000000000001</v>
+        <v>0.47870000000000001</v>
       </c>
       <c r="AM9">
-        <v>0.1757</v>
+        <v>0.61240000000000006</v>
       </c>
       <c r="AN9">
-        <v>0.45500000000000002</v>
+        <v>0.65380000000000005</v>
       </c>
       <c r="AO9">
-        <v>0.69079999999999997</v>
+        <v>0.4521</v>
       </c>
       <c r="AP9">
-        <v>0.6119</v>
+        <v>0.62309999999999999</v>
       </c>
       <c r="AQ9">
-        <v>0.4703</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="AR9">
-        <v>0.90880000000000005</v>
+        <v>0.37209999999999999</v>
       </c>
       <c r="AS9">
-        <v>0.57889999999999997</v>
+        <v>0.69220000000000004</v>
       </c>
       <c r="AT9">
-        <v>0.8508</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="AU9">
-        <v>0.44869999999999999</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="AV9">
-        <v>0.89219999999999999</v>
+        <v>0.70250000000000001</v>
       </c>
       <c r="AW9">
-        <v>0.59109999999999996</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="AX9">
-        <v>0.72609999999999997</v>
+        <v>0.18770000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.1835</v>
+        <v>0.3357</v>
       </c>
       <c r="B10">
-        <v>0.4743</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="C10">
-        <v>0.25580000000000003</v>
+        <v>0.87239999999999995</v>
       </c>
       <c r="D10">
-        <v>0.73640000000000005</v>
+        <v>0.63739999999999997</v>
       </c>
       <c r="E10">
-        <v>0.40029999999999999</v>
+        <v>0.76590000000000003</v>
       </c>
       <c r="F10">
-        <v>0.55279999999999996</v>
+        <v>0.91139999999999999</v>
       </c>
       <c r="G10">
-        <v>0.1968</v>
+        <v>0.44230000000000003</v>
       </c>
       <c r="H10">
-        <v>0.45240000000000002</v>
+        <v>0.43909999999999999</v>
       </c>
       <c r="I10">
-        <v>0.69679999999999997</v>
+        <v>0.67810000000000004</v>
       </c>
       <c r="J10">
-        <v>0.61080000000000001</v>
+        <v>0.58069999999999999</v>
       </c>
       <c r="K10">
-        <v>0.78800000000000003</v>
+        <v>0.52939999999999998</v>
       </c>
       <c r="L10">
-        <v>0.41660000000000003</v>
+        <v>0.56030000000000002</v>
       </c>
       <c r="M10">
-        <v>0.6663</v>
+        <v>0.74170000000000003</v>
       </c>
       <c r="N10">
-        <v>0.95750000000000002</v>
+        <v>0.35460000000000003</v>
       </c>
       <c r="O10">
-        <v>0.80810000000000004</v>
+        <v>0.57540000000000002</v>
       </c>
       <c r="P10">
-        <v>0.65859999999999996</v>
+        <v>0.25309999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.8448</v>
+        <v>0.89590000000000003</v>
       </c>
       <c r="R10">
-        <v>0.53339999999999999</v>
+        <v>0.89290000000000003</v>
       </c>
       <c r="S10">
-        <v>0.77780000000000005</v>
+        <v>0.76680000000000004</v>
       </c>
       <c r="T10">
-        <v>0.94940000000000002</v>
+        <v>0.53439999999999999</v>
       </c>
       <c r="U10">
-        <v>0.72870000000000001</v>
+        <v>0.7772</v>
       </c>
       <c r="V10">
-        <v>0.39660000000000001</v>
+        <v>0.91339999999999999</v>
       </c>
       <c r="W10">
-        <v>0.5333</v>
+        <v>0.79369999999999996</v>
       </c>
       <c r="X10">
-        <v>0.87790000000000001</v>
+        <v>0.71319999999999995</v>
       </c>
       <c r="Y10">
-        <v>0.26679999999999998</v>
+        <v>0.48039999999999999</v>
       </c>
       <c r="Z10">
-        <v>0.45900000000000002</v>
+        <v>0.68530000000000002</v>
       </c>
       <c r="AA10">
-        <v>0.56130000000000002</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="AB10">
-        <v>0.52929999999999999</v>
+        <v>0.9042</v>
       </c>
       <c r="AC10">
-        <v>0.81720000000000004</v>
+        <v>0.74380000000000002</v>
       </c>
       <c r="AD10">
-        <v>0.53469999999999995</v>
+        <v>0.62390000000000001</v>
       </c>
       <c r="AE10">
-        <v>0.42920000000000003</v>
+        <v>0.7913</v>
       </c>
       <c r="AF10">
-        <v>0.77259999999999995</v>
+        <v>0.43390000000000001</v>
       </c>
       <c r="AG10">
-        <v>0.98650000000000004</v>
+        <v>0.4551</v>
       </c>
       <c r="AH10">
-        <v>6.9400000000000003E-2</v>
+        <v>0.31030000000000002</v>
       </c>
       <c r="AI10">
-        <v>0.68220000000000003</v>
+        <v>0.80759999999999998</v>
       </c>
       <c r="AJ10">
-        <v>0.80179999999999996</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="AK10">
-        <v>0.74509999999999998</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="AL10">
-        <v>0.8054</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="AM10">
-        <v>0.48020000000000002</v>
+        <v>0.68910000000000005</v>
       </c>
       <c r="AN10">
-        <v>0.48459999999999998</v>
+        <v>0.76</v>
       </c>
       <c r="AO10">
-        <v>0.68069999999999997</v>
+        <v>0.3468</v>
       </c>
       <c r="AP10">
-        <v>0.63800000000000001</v>
+        <v>0.74950000000000006</v>
       </c>
       <c r="AQ10">
-        <v>0.37669999999999998</v>
+        <v>0.60419999999999996</v>
       </c>
       <c r="AR10">
-        <v>0.872</v>
+        <v>0.21609999999999999</v>
       </c>
       <c r="AS10">
-        <v>0.65249999999999997</v>
+        <v>0.60670000000000002</v>
       </c>
       <c r="AT10">
-        <v>0.86009999999999998</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="AU10">
-        <v>0.39240000000000003</v>
+        <v>0.4849</v>
       </c>
       <c r="AV10">
-        <v>0.84450000000000003</v>
+        <v>0.6593</v>
       </c>
       <c r="AW10">
-        <v>0.50470000000000004</v>
+        <v>0.64039999999999997</v>
       </c>
       <c r="AX10">
-        <v>0.64059999999999995</v>
+        <v>0.17169999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.1132</v>
+        <v>0.51759999999999995</v>
       </c>
       <c r="B11">
-        <v>0.23139999999999999</v>
+        <v>0.70489999999999997</v>
       </c>
       <c r="C11">
-        <v>0.13900000000000001</v>
+        <v>0.76890000000000003</v>
       </c>
       <c r="D11">
-        <v>0.72809999999999997</v>
+        <v>0.58150000000000002</v>
       </c>
       <c r="E11">
-        <v>0.47599999999999998</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="F11">
-        <v>0.36020000000000002</v>
+        <v>0.87619999999999998</v>
       </c>
       <c r="G11">
-        <v>0.23649999999999999</v>
+        <v>0.38169999999999998</v>
       </c>
       <c r="H11">
-        <v>0.42099999999999999</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="I11">
-        <v>0.61609999999999998</v>
+        <v>0.73519999999999996</v>
       </c>
       <c r="J11">
-        <v>0.52590000000000003</v>
+        <v>0.63880000000000003</v>
       </c>
       <c r="K11">
-        <v>0.67159999999999997</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L11">
-        <v>0.51300000000000001</v>
+        <v>0.38779999999999998</v>
       </c>
       <c r="M11">
-        <v>0.55130000000000001</v>
+        <v>0.76590000000000003</v>
       </c>
       <c r="N11">
-        <v>0.93730000000000002</v>
+        <v>0.57350000000000001</v>
       </c>
       <c r="O11">
-        <v>0.74380000000000002</v>
+        <v>0.57120000000000004</v>
       </c>
       <c r="P11">
-        <v>0.82</v>
+        <v>0.3236</v>
       </c>
       <c r="Q11">
-        <v>0.83020000000000005</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="R11">
-        <v>0.55259999999999998</v>
+        <v>0.90539999999999998</v>
       </c>
       <c r="S11">
-        <v>0.63500000000000001</v>
+        <v>0.48649999999999999</v>
       </c>
       <c r="T11">
-        <v>0.95840000000000003</v>
+        <v>0.57469999999999999</v>
       </c>
       <c r="U11">
-        <v>0.7258</v>
+        <v>0.82020000000000004</v>
       </c>
       <c r="V11">
-        <v>0.30030000000000001</v>
+        <v>0.90139999999999998</v>
       </c>
       <c r="W11">
-        <v>0.53739999999999999</v>
+        <v>0.63470000000000004</v>
       </c>
       <c r="X11">
-        <v>0.81779999999999997</v>
+        <v>0.57420000000000004</v>
       </c>
       <c r="Y11">
-        <v>0.62129999999999996</v>
+        <v>0.38729999999999998</v>
       </c>
       <c r="Z11">
-        <v>0.69</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="AA11">
-        <v>0.74009999999999998</v>
+        <v>0.2417</v>
       </c>
       <c r="AB11">
-        <v>0.48659999999999998</v>
+        <v>0.76859999999999995</v>
       </c>
       <c r="AC11">
-        <v>0.66830000000000001</v>
+        <v>0.73780000000000001</v>
       </c>
       <c r="AD11">
-        <v>0.47370000000000001</v>
+        <v>0.67830000000000001</v>
       </c>
       <c r="AE11">
-        <v>0.48080000000000001</v>
+        <v>0.6835</v>
       </c>
       <c r="AF11">
-        <v>0.73399999999999999</v>
+        <v>0.45619999999999999</v>
       </c>
       <c r="AG11">
-        <v>0.99409999999999998</v>
+        <v>0.38569999999999999</v>
       </c>
       <c r="AH11">
-        <v>3.9300000000000002E-2</v>
+        <v>0.64829999999999999</v>
       </c>
       <c r="AI11">
-        <v>0.59409999999999996</v>
+        <v>0.75049999999999994</v>
       </c>
       <c r="AJ11">
-        <v>0.80179999999999996</v>
+        <v>0.2984</v>
       </c>
       <c r="AK11">
-        <v>0.54190000000000005</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.65790000000000004</v>
+        <v>0.35270000000000001</v>
       </c>
       <c r="AM11">
-        <v>0.39450000000000002</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="AN11">
-        <v>0.40279999999999999</v>
+        <v>0.70350000000000001</v>
       </c>
       <c r="AO11">
-        <v>0.61260000000000003</v>
+        <v>0.48920000000000002</v>
       </c>
       <c r="AP11">
-        <v>0.59399999999999997</v>
+        <v>0.64539999999999997</v>
       </c>
       <c r="AQ11">
-        <v>0.29099999999999998</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="AR11">
-        <v>0.87909999999999999</v>
+        <v>0.1203</v>
       </c>
       <c r="AS11">
-        <v>0.57440000000000002</v>
+        <v>0.56559999999999999</v>
       </c>
       <c r="AT11">
-        <v>0.92559999999999998</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="AU11">
-        <v>0.52939999999999998</v>
+        <v>0.39539999999999997</v>
       </c>
       <c r="AV11">
-        <v>0.82709999999999995</v>
+        <v>0.71220000000000006</v>
       </c>
       <c r="AW11">
-        <v>0.56999999999999995</v>
+        <v>0.70960000000000001</v>
       </c>
       <c r="AX11">
-        <v>0.53129999999999999</v>
+        <v>0.1183</v>
       </c>
     </row>
   </sheetData>
